--- a/games/spiderman2/spiderman2_data.xlsx
+++ b/games/spiderman2/spiderman2_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chels\Documents\GitHub\Achievement-Vault\games\spiderman2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\games\spiderman2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D4570B-C667-43A3-947F-DC44EE08FE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A46D23-2708-4F9F-8E89-6004C2FBA412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="504" windowWidth="20796" windowHeight="11856" xr2:uid="{E79D6183-D772-F644-AE89-4CAD504C8F4D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E79D6183-D772-F644-AE89-4CAD504C8F4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -272,15 +272,9 @@
     <t>Data Collector (Silver)</t>
   </si>
   <si>
-    <t>Complete “Target Identified”</t>
-  </si>
-  <si>
     <t>Crimson Hour (Silver)</t>
   </si>
   <si>
-    <t>Complete “It Was Meant for Me”</t>
-  </si>
-  <si>
     <t>Exterminator (Silver)</t>
   </si>
   <si>
@@ -299,9 +293,6 @@
     <t>Complete “Don’t Be Scared”</t>
   </si>
   <si>
-    <t>Complete “Grand Finale”</t>
-  </si>
-  <si>
     <t>Behind the Masks (Silver)</t>
   </si>
   <si>
@@ -309,13 +300,22 @@
   </si>
   <si>
     <t>Once More, With Feeling (Platinum)</t>
+  </si>
+  <si>
+    <t>Complete “Grand Finale” (Complete all Mysteriums)</t>
+  </si>
+  <si>
+    <t>Complete “Target Identified” (Complete all Unidentified Targets)</t>
+  </si>
+  <si>
+    <t>Complete “It Was Meant for Me” (last mission in The Flame side story)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -338,24 +338,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -375,14 +376,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,748 +716,657 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4659E671-0874-FE42-985B-794BDDF20B74}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.5" customWidth="1"/>
-    <col min="2" max="2" width="38.19921875" customWidth="1"/>
+    <col min="2" max="2" width="38.25" customWidth="1"/>
     <col min="3" max="4" width="6.5" customWidth="1"/>
-    <col min="5" max="5" width="25.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="63.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5"/>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6" t="s">
-        <v>77</v>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6" t="s">
-        <v>79</v>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6" t="s">
-        <v>81</v>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6" t="s">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6" t="s">
-        <v>61</v>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6" t="s">
-        <v>63</v>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6" t="s">
-        <v>65</v>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6" t="s">
-        <v>67</v>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6" t="s">
-        <v>69</v>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="5">
-        <v>1</v>
-      </c>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6" t="s">
-        <v>71</v>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1</v>
-      </c>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5" t="s">
-        <v>73</v>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1</v>
-      </c>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
-        <v>75</v>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1</v>
-      </c>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
-        <v>90</v>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" s="5">
-        <v>1</v>
-      </c>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G19" s="4"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="5">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="5">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="5">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="5">
-        <v>1</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="5">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="5">
-        <v>1</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="5">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="5">
-        <v>1</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:H18">
+    <sortCondition ref="F2:F18"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
